--- a/hasil ujian tahfidz/hasil ujian tahfidz - muhammad fatih yusuf rahman.xlsx
+++ b/hasil ujian tahfidz/hasil ujian tahfidz - muhammad fatih yusuf rahman.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zen\rekap-tahfidz\hasil ujian tahfidz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE19AC9-F086-4141-A89C-0169AFD7A023}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AC0DE4-B8D9-4F18-829F-715F3302757F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{FBABE9AF-663C-48BC-B2A5-05E25A948692}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="4" xr2:uid="{FBABE9AF-663C-48BC-B2A5-05E25A948692}"/>
   </bookViews>
   <sheets>
     <sheet name="juz 30" sheetId="1" r:id="rId1"/>
     <sheet name="juz 1" sheetId="3" r:id="rId2"/>
     <sheet name="juz 2" sheetId="4" r:id="rId3"/>
     <sheet name="juz 3" sheetId="6" r:id="rId4"/>
-    <sheet name="juz 4" sheetId="7" r:id="rId5"/>
+    <sheet name="juz 4 - last" sheetId="7" r:id="rId5"/>
     <sheet name="juz 5" sheetId="8" r:id="rId6"/>
     <sheet name="juz 6" sheetId="9" r:id="rId7"/>
     <sheet name="juz 7" sheetId="10" r:id="rId8"/>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'juz 2'!$A$1:$E$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'juz 3'!$A$1:$E$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'juz 30'!$A$1:$E$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'juz 4'!$A$1:$E$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'juz 4 - last'!$A$1:$E$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'juz 5'!$A$1:$E$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'juz 6'!$A$1:$E$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'juz 7'!$A$1:$E$43</definedName>
@@ -97,7 +97,7 @@
     <t>II (Tsani)</t>
   </si>
   <si>
-    <t>Nama Santri</t>
+    <t>Muhammad Fatih Yusuf Rahman</t>
   </si>
 </sst>
 </file>
@@ -418,6 +418,57 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="just"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1350">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Alhamdulillah Ananda Fatih dapat menyelesaikan ujian juz 30 dengan baik, terdapat beberapa ayat yang tidak lancar seperti keterangan di atas. Dalam aspek tajwid, ada beberapa hukum bacaaan yang perlu diperbaiki seperti hukum ikhfa pada surah Al-Balad, idghom bigunnahnya juga masih perlu diperbaiki, makhroj huruf seperti</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ar-SA" sz="1350">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ز </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1350">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> dan</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ar-SA" sz="1350">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ح </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1350">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> masih perlu dilatih dalam juz ini. Secara umum, untuk di juz 30 ini, anada lulus dengan predikat </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1350" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>"Mumtaz"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="just"/>
           <a:endParaRPr lang="en-US" sz="1350">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -668,6 +719,30 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="just"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1350">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Alhamdulillah Ananda Fatih pada Juz 1 ini dapat menyelesaikan dengan baik, masih terdapat beberapa kesalahan pada setiap halaman, masih perlu dimurajaah kembali. Pada Juz ini,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1350" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> panjang/pendek bacaan (Mad Ashli) masih perlu diperbaiki, hukum Iqlab sering tertinggal, namun secara umum, Ananda pada Juz ini lulus dengan predikat </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1350" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>"Jayyid Jiddan".</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1350">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -793,6 +868,46 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="just"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1350">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Pada Juz 2 ini juga masih perlu dimurajaah,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1350" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> masih terdapat kesalahan pada beberapa halaman, Idghom bighunnahnya seperti pada bacaan </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ar-SA" sz="1350" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>أن يترك</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1350" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> masih sering tertinggal, Ikhfa'nya juga masih sering tertinggal. Secara umum, Ananda lulus dengan predikat </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1350" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>"Jayyid Jiddan".</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1350">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -918,6 +1033,30 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="just"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1350">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Pada</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1350" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Juz 3 juga masih perlu dimurajaah, masih terdapat beberapa kesalahan, ghunnahnya masih kurang, Mad Wajib masih kurang panjang, masih perlu dirigit lagi bacaannya baik pada aspek kelancaran maupun hukum tajwid, secara umum Ananda lulus dengan predikat </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1350" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>"Mumtaz".</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1350">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -1043,6 +1182,30 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="just"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1350">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Pada Juz ini masih perlu banyak murajaah, masih kurang lancar pada beberapa halaman, sering tertinggal kata dalam kalimat bacaan, sering lupa di bagian akhir</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1350" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> ayat, tajwidnya juga masih perlu dilatih. Secara umum, Ananda lulus dengan predikat </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1350" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>"Jayyid".</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1350">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -1855,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E7EE10-9437-493A-8814-E1A4091113FF}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1978,14 +2141,16 @@
         <f t="shared" si="0"/>
         <v>583</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
       <c r="D17" s="8">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E17" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2111,10 +2276,12 @@
         <f t="shared" si="0"/>
         <v>590</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
       <c r="D24" s="8">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E24" s="6" t="str">
         <f t="shared" si="2"/>
@@ -2206,10 +2373,12 @@
         <f t="shared" si="0"/>
         <v>595</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
       <c r="D29" s="8">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E29" s="6" t="str">
         <f t="shared" si="2"/>
@@ -2263,14 +2432,16 @@
         <f t="shared" si="0"/>
         <v>598</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="6">
+        <v>3</v>
+      </c>
       <c r="D32" s="8">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Mumtaz</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2282,14 +2453,16 @@
         <f t="shared" si="0"/>
         <v>599</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="6">
+        <v>2</v>
+      </c>
       <c r="D33" s="8">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2395,7 +2568,7 @@
       <c r="C39" s="4"/>
       <c r="D39" s="9">
         <f>AVERAGE(D16:D38)</f>
-        <v>100</v>
+        <v>97.391304347826093</v>
       </c>
       <c r="E39" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2486,7 +2659,7 @@
       </c>
       <c r="B10" s="11" t="str">
         <f>'juz 30'!B10</f>
-        <v>Nama Santri</v>
+        <v>Muhammad Fatih Yusuf Rahman</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -2955,8 +3128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71C77C2-921A-4F58-A7C8-2EA1D1F12FAF}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3008,7 +3181,7 @@
       </c>
       <c r="B10" s="11" t="str">
         <f>'juz 30'!B10</f>
-        <v>Nama Santri</v>
+        <v>Muhammad Fatih Yusuf Rahman</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3174,14 +3347,16 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6">
+        <v>2</v>
+      </c>
       <c r="D22" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E22" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3193,10 +3368,12 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
       <c r="D23" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E23" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3231,10 +3408,12 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
       <c r="D25" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E25" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3250,14 +3429,16 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="6">
+        <v>2</v>
+      </c>
       <c r="D26" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E26" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3288,14 +3469,16 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="6">
+        <v>3</v>
+      </c>
       <c r="D28" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E28" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3307,14 +3490,16 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="6">
+        <v>4</v>
+      </c>
       <c r="D29" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="E29" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3326,14 +3511,16 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="6">
+        <v>2</v>
+      </c>
       <c r="D30" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E30" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3345,14 +3532,16 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="6">
+        <v>3</v>
+      </c>
       <c r="D31" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E31" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3364,14 +3553,16 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="6">
+        <v>4</v>
+      </c>
       <c r="D32" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="E32" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3383,14 +3574,16 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="6">
+        <v>4</v>
+      </c>
       <c r="D33" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="E33" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3402,14 +3595,16 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="6">
+        <v>4</v>
+      </c>
       <c r="D34" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="E34" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3421,14 +3616,16 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C35" s="6"/>
+      <c r="C35" s="6">
+        <v>3</v>
+      </c>
       <c r="D35" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3439,11 +3636,11 @@
       <c r="C36" s="4"/>
       <c r="D36" s="9">
         <f>AVERAGE(D16:D35)</f>
-        <v>100</v>
+        <v>88.999999999999986</v>
       </c>
       <c r="E36" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3477,8 +3674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457E5CA9-811F-4843-8198-28F642C325FE}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3530,7 +3727,7 @@
       </c>
       <c r="B10" s="11" t="str">
         <f>'juz 30'!B10</f>
-        <v>Nama Santri</v>
+        <v>Muhammad Fatih Yusuf Rahman</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3601,14 +3798,16 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
       <c r="D17" s="8">
         <f t="shared" ref="D17:D35" si="3">(15-C17)/15*100</f>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E17" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3620,10 +3819,12 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
       <c r="D18" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E18" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3639,14 +3840,16 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
       <c r="D19" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E19" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3658,14 +3861,16 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="6">
+        <v>2</v>
+      </c>
       <c r="D20" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E20" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3677,10 +3882,12 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
       <c r="D21" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E21" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3696,10 +3903,12 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
       <c r="D22" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E22" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3715,14 +3924,16 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="6">
+        <v>4</v>
+      </c>
       <c r="D23" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="E23" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3734,14 +3945,16 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="6">
+        <v>2</v>
+      </c>
       <c r="D24" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E24" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3772,10 +3985,12 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
       <c r="D26" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E26" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3810,14 +4025,16 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="6">
+        <v>3</v>
+      </c>
       <c r="D28" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E28" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3829,10 +4046,12 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
       <c r="D29" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E29" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3848,14 +4067,16 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="6">
+        <v>3</v>
+      </c>
       <c r="D30" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E30" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3867,14 +4088,16 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="6">
+        <v>3</v>
+      </c>
       <c r="D31" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E31" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3886,14 +4109,16 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="6">
+        <v>5</v>
+      </c>
       <c r="D32" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="E32" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3905,10 +4130,12 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
       <c r="D33" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E33" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3924,14 +4151,16 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="6">
+        <v>3</v>
+      </c>
       <c r="D34" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E34" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3943,14 +4172,16 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C35" s="6"/>
+      <c r="C35" s="6">
+        <v>3</v>
+      </c>
       <c r="D35" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3961,11 +4192,11 @@
       <c r="C36" s="4"/>
       <c r="D36" s="9">
         <f>AVERAGE(D16:D35)</f>
-        <v>100</v>
+        <v>87.333333333333343</v>
       </c>
       <c r="E36" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3999,8 +4230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43302F31-82AC-4640-A60A-CADF25D070C3}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4052,7 +4283,7 @@
       </c>
       <c r="B10" s="11" t="str">
         <f>'juz 30'!B10</f>
-        <v>Nama Santri</v>
+        <v>Muhammad Fatih Yusuf Rahman</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -4142,10 +4373,12 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
       <c r="D18" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E18" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4199,14 +4432,16 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="6">
+        <v>3</v>
+      </c>
       <c r="D21" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E21" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4218,14 +4453,16 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6">
+        <v>2</v>
+      </c>
       <c r="D22" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E22" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4275,14 +4512,16 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="6">
+        <v>2</v>
+      </c>
       <c r="D25" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E25" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4294,14 +4533,16 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="6">
+        <v>2</v>
+      </c>
       <c r="D26" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E26" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4313,10 +4554,12 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
       <c r="D27" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E27" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4389,14 +4632,16 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="6">
+        <v>4</v>
+      </c>
       <c r="D31" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="E31" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4408,14 +4653,16 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="6">
+        <v>4</v>
+      </c>
       <c r="D32" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="E32" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4427,10 +4674,12 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
       <c r="D33" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E33" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4446,14 +4695,16 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="6">
+        <v>2</v>
+      </c>
       <c r="D34" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E34" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4465,14 +4716,16 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="C35" s="6"/>
+      <c r="C35" s="6">
+        <v>3</v>
+      </c>
       <c r="D35" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4483,7 +4736,7 @@
       <c r="C36" s="4"/>
       <c r="D36" s="9">
         <f>AVERAGE(D16:D35)</f>
-        <v>100</v>
+        <v>91.666666666666657</v>
       </c>
       <c r="E36" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4521,8 +4774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE6E1BD-DB97-4CE4-971B-80D38B23570A}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4574,7 +4827,7 @@
       </c>
       <c r="B10" s="11" t="str">
         <f>'juz 30'!B10</f>
-        <v>Nama Santri</v>
+        <v>Muhammad Fatih Yusuf Rahman</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -4626,14 +4879,16 @@
         <f t="shared" ref="B16:B35" si="0">20*($B$13-1)+1+A16</f>
         <v>62</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="6">
+        <v>3</v>
+      </c>
       <c r="D16" s="8">
         <f>(15-C16)/15*100</f>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E16" s="6" t="str">
         <f t="shared" ref="E16:E36" si="1">IF(D16&lt;66,"Dhoif",IF(D16&lt;74.5,"Maqbul",IF(D16&lt;83,"Jayyid",IF(D16&lt;91.5,"Jayyid Jiddan","Mumtaz"))))</f>
-        <v>Mumtaz</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4645,14 +4900,16 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6">
+        <v>4</v>
+      </c>
       <c r="D17" s="8">
         <f t="shared" ref="D17:D35" si="3">(15-C17)/15*100</f>
-        <v>100</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="E17" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4664,14 +4921,16 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6">
+        <v>4</v>
+      </c>
       <c r="D18" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="E18" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4683,14 +4942,16 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="6">
+        <v>3</v>
+      </c>
       <c r="D19" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E19" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4702,14 +4963,16 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="6">
+        <v>2</v>
+      </c>
       <c r="D20" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E20" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4721,14 +4984,16 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="6">
+        <v>4</v>
+      </c>
       <c r="D21" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="E21" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4740,14 +5005,16 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="6">
+        <v>5</v>
+      </c>
       <c r="D22" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="E22" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4759,14 +5026,16 @@
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="6">
+        <v>3</v>
+      </c>
       <c r="D23" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E23" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4778,14 +5047,16 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="6">
+        <v>5</v>
+      </c>
       <c r="D24" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="E24" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4797,14 +5068,16 @@
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="6">
+        <v>5</v>
+      </c>
       <c r="D25" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="E25" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4816,14 +5089,16 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="6">
+        <v>5</v>
+      </c>
       <c r="D26" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="E26" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4835,14 +5110,16 @@
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="6">
+        <v>5</v>
+      </c>
       <c r="D27" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="E27" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4854,14 +5131,16 @@
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="6">
+        <v>5</v>
+      </c>
       <c r="D28" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="E28" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Maqbul</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4873,14 +5152,16 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="6">
+        <v>2</v>
+      </c>
       <c r="D29" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E29" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4892,10 +5173,12 @@
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
       <c r="D30" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E30" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4911,10 +5194,12 @@
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
       <c r="D31" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E31" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4949,14 +5234,16 @@
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="6">
+        <v>2</v>
+      </c>
       <c r="D33" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E33" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid Jiddan</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4968,10 +5255,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
       <c r="D34" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="E34" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5005,11 +5294,11 @@
       <c r="C36" s="4"/>
       <c r="D36" s="9">
         <f>AVERAGE(D16:D35)</f>
-        <v>100</v>
+        <v>79.999999999999972</v>
       </c>
       <c r="E36" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Mumtaz</v>
+        <v>Jayyid</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -5096,7 +5385,7 @@
       </c>
       <c r="B10" s="11" t="str">
         <f>'juz 30'!B10</f>
-        <v>Nama Santri</v>
+        <v>Muhammad Fatih Yusuf Rahman</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -5618,7 +5907,7 @@
       </c>
       <c r="B10" s="11" t="str">
         <f>'juz 30'!B10</f>
-        <v>Nama Santri</v>
+        <v>Muhammad Fatih Yusuf Rahman</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6140,7 +6429,7 @@
       </c>
       <c r="B10" s="11" t="str">
         <f>'juz 30'!B10</f>
-        <v>Nama Santri</v>
+        <v>Muhammad Fatih Yusuf Rahman</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -6662,7 +6951,7 @@
       </c>
       <c r="B10" s="11" t="str">
         <f>'juz 30'!B10</f>
-        <v>Nama Santri</v>
+        <v>Muhammad Fatih Yusuf Rahman</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
